--- a/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ TRIPHAMMER 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ TRIPHAMMER 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$115.56</t>
+          <t>$231.12</t>
         </is>
       </c>
     </row>
@@ -688,6 +688,1032 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>$23.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>K1570</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Buttermilk</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$15.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$15.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22096</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Can - Tomato - Whole Peeled</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$37.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$151.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CF284</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Corn - FRZ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$22.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$22.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CF096</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fresh Mozz (Sliced)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$50.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$50.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CF266</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Green Bean - FRZ (cut)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$26.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$26.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>50778</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sausage - Patty (1.5oz)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$27.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$272.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>JP006</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6 oz Chicken Breast</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$70.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$70.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HN732</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Avocado - Hand Scooped</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$57.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$230.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LG162</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Base - Beef (No MSG)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$46.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$46.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LF010</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Base - Vegetable</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$48.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$96.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>81692</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Can - Garbanzo Beans</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$32.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$129.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FA326</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Random</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$83.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$83.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CG686</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Retail (cooked)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$55.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$559.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>V2346</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chicken Wing - Fully Cooked</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$141.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$282.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C9108</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Corned Beef (Sliced)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$61.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$183.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VJ072</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Flatbread - Dough (Frozen)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$68.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$68.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A0184</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Garlic Spread</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$46.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$46.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>42498</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ham (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$63.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$252.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>25460</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hard Boiled Egg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$43.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$43.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HH264</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Muenster (Sliced)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$50.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$50.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CK336</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pan Spray</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$30.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$30.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>E3556</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pastrami (Sliced)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$59.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$177.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CK556</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Peas - FRZ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$43.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$43.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NJ502</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pepper Jack (Sliced)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$53.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$106.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>27792</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PKT Sour Cream</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$19.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$19.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Prosciutto</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$60.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$60.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NH016</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Provolone (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$98.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>$196.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>A4346</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sausage - Italian Hot Raw</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$3.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>$3.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CR064</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Shrimp Peeled Tail Off (21/25)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$59.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>$118.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AV906</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Swiss (Sliced)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$56.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>$113.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DT820</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$60.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>$1,442.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CG552</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pasta - Lasagna Sheet</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$39.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>$39.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>H5846</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Carrots - Shredded Fresh</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$11.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>$11.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>78270</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cauliflower - Fresh</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$29.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>$29.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>78112</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Celery - Fresh</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$36.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>$36.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NH166</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lettuce - Arcadian Blend</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$34.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>$69.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CK412</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lettuce - Green Leaf</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$33.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>$100.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20478</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mushroom Portobello - 4" Cap</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$21.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>$43.60</t>
         </is>
       </c>
     </row>
